--- a/Region Evaluation Analysis Model v1.0.xlsx
+++ b/Region Evaluation Analysis Model v1.0.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoftapc-my.sharepoint.com/personal/etdittri_microsoft_com/Documents/Work/blogs/02 Quantifying Region Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="385" documentId="8_{A7E6AA9E-CA89-4166-8AF7-5969DFA18AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EC8CB401-1FB4-437E-8A81-586C36B1CF58}"/>
+  <xr:revisionPtr revIDLastSave="403" documentId="8_{A7E6AA9E-CA89-4166-8AF7-5969DFA18AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{559D596B-F48B-48D2-B366-BAA128D2825E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="816" xr2:uid="{68BFC755-04AF-4C57-BB9D-BEFABBE0A89D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Regions Strategy Analysis Model" sheetId="6" r:id="rId1"/>
+    <sheet name="Region Strategy Analysis Model" sheetId="6" r:id="rId1"/>
     <sheet name="1. Region Scope" sheetId="1" r:id="rId2"/>
     <sheet name="2. Contoso Locations" sheetId="2" r:id="rId3"/>
     <sheet name="3. User Densities" sheetId="7" r:id="rId4"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="141">
   <si>
     <t>Unit Scores:</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Weighted Scores</t>
   </si>
   <si>
-    <t>Weigth</t>
-  </si>
-  <si>
     <t>Multiplier</t>
   </si>
   <si>
@@ -461,6 +458,9 @@
   </si>
   <si>
     <t>Region Colour</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
 </sst>
 </file>
@@ -809,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -910,24 +910,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -987,36 +974,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1349,26 +1348,30 @@
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="96"/>
+      <c r="F1" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="60"/>
+      <c r="K1" s="96"/>
     </row>
     <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>24</v>
+      </c>
       <c r="D2" s="43" t="s">
         <v>6</v>
       </c>
@@ -1554,31 +1557,31 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
@@ -1587,34 +1590,34 @@
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60" t="s">
+      <c r="E11" s="96"/>
+      <c r="F11" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="60"/>
+      <c r="K11" s="96"/>
     </row>
     <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B12" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="92" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="43" t="s">
@@ -1641,16 +1644,16 @@
         <v>18</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="29">
         <v>2</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="58">
         <f>D3*C13</f>
         <v>2</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="58">
         <f>E3*C13</f>
         <v>2</v>
       </c>
@@ -1684,16 +1687,16 @@
         <v>19</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="29">
         <v>3</v>
       </c>
-      <c r="D14" s="59">
+      <c r="D14" s="58">
         <f>D4*C14</f>
         <v>3</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="58">
         <f>E4*C14</f>
         <v>9</v>
       </c>
@@ -1727,16 +1730,16 @@
         <v>20</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="29">
         <v>3</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="58">
         <f>D5*C15</f>
         <v>9</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="58">
         <f>E5*C15</f>
         <v>6</v>
       </c>
@@ -1770,16 +1773,16 @@
         <v>21</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="29">
         <v>2</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="58">
         <f>D6*C16</f>
         <v>2</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="58">
         <f>E6*C16</f>
         <v>6</v>
       </c>
@@ -1813,16 +1816,16 @@
         <v>22</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="30">
         <v>1</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D17" s="58">
         <f>D7*C17</f>
         <v>1</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="58">
         <f>E7*C17</f>
         <v>1</v>
       </c>
@@ -1853,13 +1856,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="58">
+        <v>28</v>
+      </c>
+      <c r="D18" s="57">
         <f>SUM(D13:D17)</f>
         <v>17</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="57">
         <f t="shared" ref="E18:K18" si="0">SUM(E13:E17)</f>
         <v>24</v>
       </c>
@@ -1889,48 +1892,48 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="98" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="98" t="s">
-        <v>138</v>
+        <v>29</v>
+      </c>
+      <c r="D20" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="93" t="s">
+        <v>137</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1954,343 +1957,343 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="C1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="D1" s="60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="B2" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="63" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="68" t="s">
+    <row r="18" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="64" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="67" t="s">
+    <row r="19" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="69" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="67" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="66" t="s">
+      <c r="B22" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="C22" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="D22" s="62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="66" t="s">
+      <c r="B23" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="C23" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="D23" s="63" t="s">
         <v>85</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -2298,10 +2301,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -2320,15 +2323,15 @@
         <v>5</v>
       </c>
       <c r="B30" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
@@ -2363,91 +2366,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="95" t="s">
+      <c r="A1" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="96" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="79" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>93</v>
-      </c>
       <c r="C2" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>131</v>
+        <v>89</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -2455,10 +2458,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -2466,32 +2469,32 @@
         <v>5</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2516,15 +2519,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="13">
         <v>100</v>
@@ -2540,7 +2543,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="6">
         <v>900</v>
@@ -2564,20 +2567,20 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="46">
         <v>1</v>
@@ -2585,7 +2588,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="47">
         <v>2</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="48">
         <v>3</v>
@@ -2620,36 +2623,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="98"/>
+      <c r="H1" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="98"/>
+      <c r="J1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="62"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="95" t="s">
+      <c r="A2" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="96" t="s">
-        <v>92</v>
-      </c>
       <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
@@ -2664,21 +2669,21 @@
         <v>13</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>117</v>
+      <c r="A3" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>116</v>
       </c>
       <c r="D3" s="12">
         <v>196</v>
@@ -2692,7 +2697,7 @@
       <c r="G3" s="13">
         <v>250</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="80">
         <v>93</v>
       </c>
       <c r="I3" s="13">
@@ -2707,13 +2712,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="5">
         <v>91</v>
@@ -2742,13 +2747,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="5">
         <v>65</v>
@@ -2777,13 +2782,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="5">
         <v>79</v>
@@ -2812,13 +2817,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="5">
         <v>84</v>
@@ -2847,13 +2852,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="5">
         <v>65</v>
@@ -2882,13 +2887,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>131</v>
+        <v>89</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>130</v>
       </c>
       <c r="D9" s="5">
         <v>54</v>
@@ -2920,10 +2925,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="5">
         <v>229</v>
@@ -2955,10 +2960,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="5">
         <v>234</v>
@@ -2987,13 +2992,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="5">
         <v>220</v>
@@ -3022,13 +3027,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" s="7">
         <v>286</v>
@@ -3056,78 +3061,79 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="C14" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="86">
+      <c r="C14" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="81">
         <f>AVERAGE(D3:D13)</f>
         <v>145.72727272727272</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E14" s="82">
         <f>AVERAGE(E3:E13)</f>
         <v>160.72727272727272</v>
       </c>
-      <c r="F14" s="86">
+      <c r="F14" s="81">
         <f>AVERAGE(F3:F13)</f>
         <v>189.72727272727272</v>
       </c>
-      <c r="G14" s="87">
+      <c r="G14" s="82">
         <f>AVERAGE(G3:G13)</f>
         <v>200.27272727272728</v>
       </c>
-      <c r="H14" s="88">
+      <c r="H14" s="83">
         <f t="shared" ref="H14:I14" si="0">AVERAGE(H3:H13)</f>
         <v>150.45454545454547</v>
       </c>
-      <c r="I14" s="87">
+      <c r="I14" s="82">
         <f t="shared" si="0"/>
         <v>139.63636363636363</v>
       </c>
-      <c r="J14" s="86">
+      <c r="J14" s="81">
         <f>AVERAGE(J3:J13)</f>
         <v>212.81818181818181</v>
       </c>
-      <c r="K14" s="87">
+      <c r="K14" s="82">
         <f>AVERAGE(K3:K13)</f>
         <v>216.63636363636363</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
+        <v>136</v>
+      </c>
+      <c r="D15" s="85"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H16" s="55"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C18" s="88" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C18" s="93" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C19" s="88" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C19" s="93" t="s">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3149,22 +3155,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63" t="s">
+      <c r="G1" s="99"/>
+      <c r="H1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="63"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="14" t="s">
@@ -3206,16 +3212,16 @@
       <c r="E3" s="40">
         <v>120</v>
       </c>
-      <c r="F3" s="79">
+      <c r="F3" s="74">
         <v>204</v>
       </c>
       <c r="G3" s="40">
         <v>148</v>
       </c>
-      <c r="H3" s="79">
+      <c r="H3" s="74">
         <v>199</v>
       </c>
-      <c r="I3" s="80">
+      <c r="I3" s="75">
         <v>193</v>
       </c>
     </row>
@@ -3233,7 +3239,7 @@
       <c r="E4" s="19">
         <v>88</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="70">
         <v>220</v>
       </c>
       <c r="G4" s="22">
@@ -3260,16 +3266,16 @@
       <c r="E5" s="19">
         <v>14</v>
       </c>
-      <c r="F5" s="75">
+      <c r="F5" s="70">
         <v>204</v>
       </c>
       <c r="G5" s="22">
         <v>146</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="70">
         <v>253</v>
       </c>
-      <c r="I5" s="77">
+      <c r="I5" s="72">
         <v>248</v>
       </c>
     </row>
@@ -3287,16 +3293,16 @@
         <v>14</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="75">
+      <c r="F6" s="70">
         <v>216</v>
       </c>
       <c r="G6" s="22">
         <v>158</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="70">
         <v>251</v>
       </c>
-      <c r="I6" s="77">
+      <c r="I6" s="72">
         <v>244</v>
       </c>
     </row>
@@ -3304,16 +3310,16 @@
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="70">
         <v>204</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="72">
         <v>220</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="70">
         <v>204</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="72">
         <v>216</v>
       </c>
       <c r="F7" s="16"/>
@@ -3358,16 +3364,16 @@
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="70">
         <v>199</v>
       </c>
       <c r="C9" s="22">
         <v>166</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="70">
         <v>253</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="72">
         <v>251</v>
       </c>
       <c r="F9" s="20">
@@ -3385,64 +3391,64 @@
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="71">
         <v>193</v>
       </c>
       <c r="C10" s="41">
         <v>160</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="71">
         <v>248</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="73">
         <v>244</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="76">
         <v>82</v>
       </c>
       <c r="G10" s="41">
         <v>144</v>
       </c>
-      <c r="H10" s="81">
+      <c r="H10" s="76">
         <v>17</v>
       </c>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="70"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="107" t="s">
-        <v>127</v>
+      <c r="A13" s="94" t="s">
+        <v>126</v>
       </c>
       <c r="B13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="D13" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="F13" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="31" t="s">
-        <v>102</v>
-      </c>
       <c r="G13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="I13" s="26" t="s">
         <v>100</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -3459,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G14" s="33">
         <v>1</v>
@@ -3485,16 +3491,16 @@
         <v>3</v>
       </c>
       <c r="F15" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="H15" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="24" t="s">
-        <v>106</v>
-      </c>
       <c r="I15" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
@@ -3515,10 +3521,10 @@
       <c r="A17" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="82">
-        <v>3</v>
-      </c>
-      <c r="C17" s="82">
+      <c r="B17" s="77">
+        <v>3</v>
+      </c>
+      <c r="C17" s="77">
         <v>2</v>
       </c>
       <c r="D17" s="6">
@@ -3530,10 +3536,10 @@
       <c r="A18" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="82">
+      <c r="B18" s="77">
         <v>4</v>
       </c>
-      <c r="C18" s="82">
+      <c r="C18" s="77">
         <v>0</v>
       </c>
       <c r="D18" s="6">
@@ -3544,10 +3550,10 @@
       <c r="A19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="82">
+      <c r="B19" s="77">
         <v>0</v>
       </c>
-      <c r="C19" s="82">
+      <c r="C19" s="77">
         <v>7</v>
       </c>
       <c r="D19" s="6">
@@ -3558,10 +3564,10 @@
       <c r="A20" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="82">
-        <v>3</v>
-      </c>
-      <c r="C20" s="82">
+      <c r="B20" s="77">
+        <v>3</v>
+      </c>
+      <c r="C20" s="77">
         <v>2</v>
       </c>
       <c r="D20" s="6">
@@ -3584,245 +3590,245 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="110"/>
+      <c r="F24" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="101"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="27">
-        <f>1*B14</f>
+        <f t="shared" ref="B25:B32" si="0">1*B14</f>
         <v>3</v>
       </c>
       <c r="C25" s="27">
-        <f>C14*2</f>
+        <f t="shared" ref="C25:C32" si="1">C14*2</f>
         <v>6</v>
       </c>
       <c r="D25" s="6">
-        <f>D14*3</f>
-        <v>3</v>
-      </c>
-      <c r="E25" s="73">
+        <f t="shared" ref="D25:D31" si="2">D14*3</f>
+        <v>3</v>
+      </c>
+      <c r="E25" s="68">
         <f>SUM(B25:D25)</f>
         <v>12</v>
       </c>
-      <c r="F25" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="100"/>
+      <c r="F25" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="103"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="27">
-        <f>1*B15</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C26" s="27">
-        <f>C15*2</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D26" s="6">
-        <f>D15*3</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="E26" s="73">
-        <f t="shared" ref="E26:E32" si="0">SUM(B26:D26)</f>
+      <c r="E26" s="68">
+        <f t="shared" ref="E26:E32" si="3">SUM(B26:D26)</f>
         <v>16</v>
       </c>
-      <c r="F26" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="106"/>
+      <c r="F26" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="107"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="27">
-        <f>1*B16</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C27" s="27">
-        <f>C16*2</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D27" s="6">
-        <f>D16*3</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E27" s="73">
-        <f t="shared" si="0"/>
+      <c r="E27" s="68">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="F27" s="101" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="102"/>
+      <c r="F27" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="109"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="27">
-        <f>1*B17</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C28" s="27">
-        <f>C17*2</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D28" s="6">
-        <f>D17*3</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E28" s="73">
-        <f t="shared" si="0"/>
+      <c r="E28" s="68">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="F28" s="101" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="102"/>
+      <c r="F28" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="109"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="27">
-        <f>1*B18</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C29" s="27">
-        <f>C18*2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D29" s="6">
-        <f>D18*3</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="E29" s="73">
-        <f t="shared" si="0"/>
+      <c r="E29" s="68">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="F29" s="101" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="102"/>
+      <c r="F29" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="109"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="27">
-        <f>1*B19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C30" s="27">
-        <f>C19*2</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D30" s="6">
-        <f>D19*3</f>
-        <v>3</v>
-      </c>
-      <c r="E30" s="73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E30" s="68">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F30" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="106"/>
+      <c r="F30" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="107"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="27">
-        <f>1*B20</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C31" s="27">
-        <f>C20*2</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D31" s="6">
-        <f>D20*3</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E31" s="73">
-        <f t="shared" si="0"/>
+      <c r="E31" s="68">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="F31" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="106"/>
+      <c r="F31" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="107"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="1">
-        <f>1*B21</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <f>C21*2</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D32" s="8">
-        <f t="shared" ref="D32" si="1">D21*3</f>
+        <f t="shared" ref="D32" si="4">D21*3</f>
         <v>6</v>
       </c>
-      <c r="E32" s="74">
-        <f t="shared" si="0"/>
+      <c r="E32" s="69">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="F32" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="G32" s="104"/>
+      <c r="F32" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4060,20 +4066,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="63be6f3e-278a-49a6-b35d-bc1142883430" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="63be6f3e-278a-49a6-b35d-bc1142883430" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4096,6 +4102,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04D396CA-ECCA-4EBE-B998-B2389B23920C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50005A81-1E9B-4DED-A062-A5F06A0E47B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4103,12 +4117,4 @@
     <ds:schemaRef ds:uri="63be6f3e-278a-49a6-b35d-bc1142883430"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04D396CA-ECCA-4EBE-B998-B2389B23920C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Region Evaluation Analysis Model v1.0.xlsx
+++ b/Region Evaluation Analysis Model v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoftapc-my.sharepoint.com/personal/etdittri_microsoft_com/Documents/Work/blogs/02 Quantifying Region Choice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="403" documentId="8_{A7E6AA9E-CA89-4166-8AF7-5969DFA18AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{559D596B-F48B-48D2-B366-BAA128D2825E}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{E6B1F687-F741-47D2-BB6D-CC438B6E3D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CD2D2FD3-74E7-4DB7-9197-5D020DB53C0A}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="816" xr2:uid="{68BFC755-04AF-4C57-BB9D-BEFABBE0A89D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="143">
   <si>
     <t>Unit Scores:</t>
   </si>
@@ -394,15 +394,6 @@
     <t>Userbase</t>
   </si>
   <si>
-    <t>Less than 350</t>
-  </si>
-  <si>
-    <t>Between 351 and 700</t>
-  </si>
-  <si>
-    <t>More than 700</t>
-  </si>
-  <si>
     <t>Geography</t>
   </si>
   <si>
@@ -461,6 +452,21 @@
   </si>
   <si>
     <t>Weight</t>
+  </si>
+  <si>
+    <t>Less 15% of Userbase</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Between 15% and 25% of userbase</t>
+  </si>
+  <si>
+    <t>More than 25% of userbase</t>
+  </si>
+  <si>
+    <t>Scores</t>
   </si>
 </sst>
 </file>
@@ -809,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -974,7 +980,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1016,6 +1021,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1334,7 +1343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B113EE-81AF-4DAD-817A-67CCE064A4D1}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1348,26 +1359,26 @@
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96" t="s">
+      <c r="E1" s="95"/>
+      <c r="F1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96" t="s">
+      <c r="G1" s="95"/>
+      <c r="H1" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="96"/>
+      <c r="K1" s="95"/>
     </row>
     <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="42" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>24</v>
@@ -1590,26 +1601,26 @@
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96" t="s">
+      <c r="E11" s="95"/>
+      <c r="F11" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96" t="s">
+      <c r="G11" s="95"/>
+      <c r="H11" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96" t="s">
+      <c r="I11" s="95"/>
+      <c r="J11" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="96"/>
+      <c r="K11" s="95"/>
     </row>
     <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B12" s="42" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>24</v>
@@ -1900,10 +1911,10 @@
         <v>29</v>
       </c>
       <c r="D20" s="93" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E20" s="93" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>108</v>
@@ -2356,7 +2367,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A10" sqref="A10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2428,7 +2439,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -2450,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -2461,7 +2472,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -2483,7 +2494,7 @@
         <v>93</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -2494,7 +2505,7 @@
         <v>93</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2506,71 +2517,122 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2318E2-FE7C-4F5C-B35A-F4AA19F4930E}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1328125" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B2" s="13">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D2">
+        <f>B2/B7*100</f>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6">
         <v>700</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D3">
+        <f>B3/B7*100</f>
+        <v>28.000000000000004</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B4" s="6">
         <v>900</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D4">
+        <f>B4/B7*100</f>
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D5">
+        <f>B5/B7*100</f>
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D6">
+        <f>B6/B7*100</f>
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>95</v>
       </c>
@@ -2578,25 +2640,25 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="49" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B11" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="50" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B12" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="51" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B13" s="48">
         <v>3</v>
@@ -2612,7 +2674,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA19291-D87E-457F-98B8-1BF15574D77C}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2623,22 +2687,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="97" t="s">
+      <c r="E1" s="97"/>
+      <c r="F1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="97" t="s">
+      <c r="G1" s="97"/>
+      <c r="H1" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="98"/>
-      <c r="J1" s="97" t="s">
+      <c r="I1" s="97"/>
+      <c r="J1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="98"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="89" t="s">
@@ -2686,13 +2750,13 @@
         <v>116</v>
       </c>
       <c r="D3" s="12">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E3" s="13">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F3" s="12">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G3" s="13">
         <v>250</v>
@@ -2704,10 +2768,10 @@
         <v>157</v>
       </c>
       <c r="J3" s="12">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K3" s="13">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -2765,7 +2829,7 @@
         <v>146</v>
       </c>
       <c r="G5" s="6">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H5" s="53">
         <v>184</v>
@@ -2823,7 +2887,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D7" s="5">
         <v>84</v>
@@ -2873,7 +2937,7 @@
         <v>151</v>
       </c>
       <c r="H8" s="53">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I8" s="6">
         <v>265</v>
@@ -2893,7 +2957,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D9" s="5">
         <v>54</v>
@@ -2928,10 +2992,10 @@
         <v>55</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D10" s="5">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E10" s="6">
         <v>242</v>
@@ -2966,10 +3030,10 @@
         <v>112</v>
       </c>
       <c r="D11" s="5">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E11" s="6">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F11" s="5">
         <v>226</v>
@@ -2998,10 +3062,10 @@
         <v>93</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D12" s="5">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E12" s="6">
         <v>254</v>
@@ -3019,7 +3083,7 @@
         <v>41</v>
       </c>
       <c r="J12" s="5">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K12" s="6">
         <v>103</v>
@@ -3033,10 +3097,10 @@
         <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D13" s="7">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="E13" s="8">
         <v>261</v>
@@ -3057,32 +3121,32 @@
         <v>176</v>
       </c>
       <c r="K13" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C14" s="77" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D14" s="81">
         <f>AVERAGE(D3:D13)</f>
-        <v>145.72727272727272</v>
+        <v>140.09090909090909</v>
       </c>
       <c r="E14" s="82">
         <f>AVERAGE(E3:E13)</f>
-        <v>160.72727272727272</v>
+        <v>159.72727272727272</v>
       </c>
       <c r="F14" s="81">
         <f>AVERAGE(F3:F13)</f>
-        <v>189.72727272727272</v>
+        <v>189.63636363636363</v>
       </c>
       <c r="G14" s="82">
         <f>AVERAGE(G3:G13)</f>
-        <v>200.27272727272728</v>
+        <v>200.18181818181819</v>
       </c>
       <c r="H14" s="83">
         <f t="shared" ref="H14:I14" si="0">AVERAGE(H3:H13)</f>
-        <v>150.45454545454547</v>
+        <v>150.18181818181819</v>
       </c>
       <c r="I14" s="82">
         <f t="shared" si="0"/>
@@ -3090,16 +3154,16 @@
       </c>
       <c r="J14" s="81">
         <f>AVERAGE(J3:J13)</f>
-        <v>212.81818181818181</v>
+        <v>212.45454545454547</v>
       </c>
       <c r="K14" s="82">
         <f>AVERAGE(K3:K13)</f>
-        <v>216.63636363636363</v>
+        <v>216.54545454545453</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D15" s="85"/>
       <c r="E15" s="84"/>
@@ -3115,17 +3179,17 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C17" s="88" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C18" s="88" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C19" s="88" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3142,10 +3206,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C377B4-C6CF-4D80-8188-594478F3561C}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3154,25 +3218,25 @@
     <col min="2" max="13" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B1" s="99" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99" t="s">
+      <c r="C1" s="98"/>
+      <c r="D1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99" t="s">
+      <c r="G1" s="98"/>
+      <c r="H1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="99"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="I1" s="98"/>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
@@ -3198,7 +3262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
@@ -3225,7 +3289,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -3252,7 +3316,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -3279,7 +3343,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -3306,7 +3370,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3333,7 +3397,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -3359,8 +3423,20 @@
       <c r="I8" s="22">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K8" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -3386,8 +3462,20 @@
       <c r="I9" s="19">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K9" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" s="33">
+        <v>1</v>
+      </c>
+      <c r="M9" s="33">
+        <v>2</v>
+      </c>
+      <c r="N9" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -3413,8 +3501,20 @@
         <v>17</v>
       </c>
       <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K10" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="65"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
@@ -3425,302 +3525,227 @@
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="94" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="25" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="109" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="110"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="25" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="27"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="27"/>
+      <c r="F16" s="45"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="27"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="27"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="27"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="C23" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="D23" s="26" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="29" t="s">
+      <c r="E23" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="100"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="27">
-        <v>3</v>
-      </c>
-      <c r="C14" s="27">
-        <v>3</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="33">
-        <v>1</v>
-      </c>
-      <c r="H14" s="33">
-        <v>2</v>
-      </c>
-      <c r="I14" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="27">
-        <v>1</v>
-      </c>
-      <c r="C15" s="27">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6">
-        <v>3</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="27">
-        <v>3</v>
-      </c>
-      <c r="C16" s="27">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="77">
-        <v>3</v>
-      </c>
-      <c r="C17" s="77">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6">
-        <v>2</v>
-      </c>
-      <c r="F17" s="45"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="77">
-        <v>4</v>
-      </c>
-      <c r="C18" s="77">
+      <c r="B24" s="27">
+        <f t="shared" ref="B24:B31" si="0">1*B13</f>
         <v>0</v>
       </c>
-      <c r="D18" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="77">
+      <c r="C24" s="27">
+        <f t="shared" ref="C24:C31" si="1">C13*2</f>
         <v>0</v>
       </c>
-      <c r="C19" s="77">
-        <v>7</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="77">
-        <v>3</v>
-      </c>
-      <c r="C20" s="77">
-        <v>2</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="101"/>
+      <c r="D24" s="6">
+        <f t="shared" ref="D24:D30" si="2">D13*3</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="68">
+        <f>SUM(B24:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="102"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" s="27">
-        <f t="shared" ref="B25:B32" si="0">1*B14</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C25" s="27">
-        <f t="shared" ref="C25:C32" si="1">C14*2</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" ref="D25:D31" si="2">D14*3</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E25" s="68">
-        <f>SUM(B25:D25)</f>
-        <v>12</v>
-      </c>
-      <c r="F25" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="103"/>
+        <f t="shared" ref="E25:E31" si="3">SUM(B25:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="105" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="106"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B26" s="27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E26" s="68">
-        <f t="shared" ref="E26:E32" si="3">SUM(B26:D26)</f>
-        <v>16</v>
-      </c>
-      <c r="F26" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="107"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="108"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" s="27">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E27" s="68">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="F27" s="108" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="109"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="108"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" s="27">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E28" s="68">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="F28" s="108" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" s="109"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="108"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="27">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C29" s="27">
         <f t="shared" si="1"/>
@@ -3728,20 +3753,20 @@
       </c>
       <c r="D29" s="6">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E29" s="68">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="F29" s="108" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="109"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="105" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="106"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B30" s="27">
         <f t="shared" si="0"/>
@@ -3749,86 +3774,61 @@
       </c>
       <c r="C30" s="27">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30" s="68">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="105" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="106"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="107"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="27">
+      <c r="B31" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C31" s="27">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D31" s="6">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="E31" s="68">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" ref="D31" si="4">D20*3</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="69">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="F31" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="107"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D32" s="8">
-        <f t="shared" ref="D32" si="4">D21*3</f>
-        <v>6</v>
-      </c>
-      <c r="E32" s="69">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="F32" s="104" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="105"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
